--- a/Bills/Master_Summary.xlsx
+++ b/Bills/Master_Summary.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,9 +451,6 @@
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="18" customWidth="1" min="13" max="13"/>
-    <col width="18" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -464,67 +461,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Company Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Company Name</t>
+          <t>No of Employees</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>No of Employees</t>
+          <t>Total Billing</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total Billing</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Total Charges</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total Charges</t>
+          <t>Total Out of Pocket</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Total Out of Pocket</t>
+          <t>Total Arrears</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Arrears</t>
+          <t>Total Amount</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Total Amount</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CGST</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SGST</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>IGST</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
         </is>
       </c>
     </row>
@@ -536,46 +518,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>87500</v>
       </c>
       <c r="E2" t="n">
-        <v>87500</v>
+        <v>25000</v>
       </c>
       <c r="F2" t="n">
-        <v>25000</v>
+        <v>750</v>
       </c>
       <c r="G2" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>25750</v>
       </c>
       <c r="J2" t="n">
-        <v>25750</v>
+        <v>30385</v>
       </c>
       <c r="K2" t="n">
-        <v>2318</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>30385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -586,46 +557,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Aradhya</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>90147</v>
       </c>
       <c r="E3" t="n">
         <v>90147</v>
       </c>
       <c r="F3" t="n">
-        <v>90147</v>
+        <v>1500</v>
       </c>
       <c r="G3" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>91647</v>
       </c>
       <c r="J3" t="n">
-        <v>91647</v>
+        <v>108143</v>
       </c>
       <c r="K3" t="n">
-        <v>8248</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8248</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>108143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -636,46 +596,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>1097327</v>
       </c>
       <c r="E4" t="n">
-        <v>1097327</v>
+        <v>1057148</v>
       </c>
       <c r="F4" t="n">
-        <v>1057148</v>
+        <v>21000</v>
       </c>
       <c r="G4" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1078148</v>
       </c>
       <c r="J4" t="n">
-        <v>1078148</v>
+        <v>1272214</v>
       </c>
       <c r="K4" t="n">
-        <v>97033</v>
-      </c>
-      <c r="L4" t="n">
-        <v>97033</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1272214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -686,46 +635,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Individual Learning Ltd</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Aradhya</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>177500</v>
       </c>
       <c r="E5" t="n">
         <v>177500</v>
       </c>
       <c r="F5" t="n">
-        <v>177500</v>
+        <v>15000</v>
       </c>
       <c r="G5" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192500</v>
       </c>
       <c r="J5" t="n">
-        <v>192500</v>
+        <v>227150</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
         <v>34650</v>
-      </c>
-      <c r="N5" t="n">
-        <v>227150</v>
       </c>
     </row>
     <row r="6">
@@ -736,46 +674,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Aradhya</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>91855</v>
       </c>
       <c r="E6" t="n">
         <v>91855</v>
       </c>
       <c r="F6" t="n">
-        <v>91855</v>
+        <v>2250</v>
       </c>
       <c r="G6" t="n">
-        <v>2250</v>
+        <v>5288</v>
       </c>
       <c r="H6" t="n">
-        <v>5288</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>99393</v>
       </c>
       <c r="J6" t="n">
-        <v>99393</v>
+        <v>117284</v>
       </c>
       <c r="K6" t="n">
-        <v>8945</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8945</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>117284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -786,46 +713,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>3116030</v>
       </c>
       <c r="E7" t="n">
-        <v>3116030</v>
+        <v>2897796</v>
       </c>
       <c r="F7" t="n">
-        <v>2897796</v>
+        <v>49500</v>
       </c>
       <c r="G7" t="n">
-        <v>49500</v>
+        <v>12654</v>
       </c>
       <c r="H7" t="n">
-        <v>12654</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2959950</v>
       </c>
       <c r="J7" t="n">
-        <v>2959950</v>
+        <v>3492740</v>
       </c>
       <c r="K7" t="n">
-        <v>266395</v>
-      </c>
-      <c r="L7" t="n">
-        <v>266395</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3492740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -836,46 +752,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>173624</v>
       </c>
       <c r="E8" t="n">
-        <v>173624</v>
+        <v>189415</v>
       </c>
       <c r="F8" t="n">
-        <v>189415</v>
+        <v>16000</v>
       </c>
       <c r="G8" t="n">
-        <v>16000</v>
+        <v>1558</v>
       </c>
       <c r="H8" t="n">
-        <v>1558</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206973</v>
       </c>
       <c r="J8" t="n">
-        <v>206973</v>
+        <v>244228</v>
       </c>
       <c r="K8" t="n">
-        <v>18628</v>
-      </c>
-      <c r="L8" t="n">
-        <v>18628</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>244228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -886,46 +791,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OPC Assets Solutions</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>53600</v>
       </c>
       <c r="E9" t="n">
-        <v>53600</v>
+        <v>52261</v>
       </c>
       <c r="F9" t="n">
-        <v>52261</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>57261</v>
       </c>
       <c r="J9" t="n">
-        <v>57261</v>
+        <v>67568</v>
       </c>
       <c r="K9" t="n">
-        <v>5153</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5153</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>67568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -936,46 +830,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OPC Assets Solutions</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>163300</v>
       </c>
       <c r="E10" t="n">
         <v>163300</v>
       </c>
       <c r="F10" t="n">
-        <v>163300</v>
+        <v>5250</v>
       </c>
       <c r="G10" t="n">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>168550</v>
       </c>
       <c r="J10" t="n">
-        <v>168550</v>
+        <v>198889</v>
       </c>
       <c r="K10" t="n">
-        <v>15170</v>
-      </c>
-      <c r="L10" t="n">
-        <v>15170</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>198889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -986,46 +869,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Reliance Retail Ltd</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>108333</v>
       </c>
       <c r="E11" t="n">
-        <v>108333</v>
+        <v>116071</v>
       </c>
       <c r="F11" t="n">
-        <v>116071</v>
+        <v>750</v>
       </c>
       <c r="G11" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>116821</v>
       </c>
       <c r="J11" t="n">
-        <v>116821</v>
+        <v>137849</v>
       </c>
       <c r="K11" t="n">
-        <v>10514</v>
-      </c>
-      <c r="L11" t="n">
-        <v>10514</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>137849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1036,46 +908,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reliance Retail Ltd</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>43333</v>
       </c>
       <c r="E12" t="n">
-        <v>43333</v>
+        <v>46428</v>
       </c>
       <c r="F12" t="n">
-        <v>46428</v>
+        <v>5357</v>
       </c>
       <c r="G12" t="n">
-        <v>5357</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>51785</v>
       </c>
       <c r="J12" t="n">
-        <v>51785</v>
+        <v>61107</v>
       </c>
       <c r="K12" t="n">
-        <v>4661</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4661</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>61107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1086,46 +947,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hathway Digital Ltd.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>209840</v>
       </c>
       <c r="E13" t="n">
         <v>209840</v>
       </c>
       <c r="F13" t="n">
-        <v>209840</v>
+        <v>20984</v>
       </c>
       <c r="G13" t="n">
-        <v>20984</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>230824</v>
       </c>
       <c r="J13" t="n">
-        <v>230824</v>
+        <v>272372</v>
       </c>
       <c r="K13" t="n">
-        <v>20774</v>
-      </c>
-      <c r="L13" t="n">
-        <v>20774</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>272372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1136,46 +986,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>67200</v>
       </c>
       <c r="E14" t="n">
-        <v>67200</v>
+        <v>72000</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>72000</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>72000</v>
+        <v>84960</v>
       </c>
       <c r="K14" t="n">
-        <v>6480</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6480</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>84960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1186,46 +1025,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>173698</v>
       </c>
       <c r="E15" t="n">
-        <v>173698</v>
+        <v>168095</v>
       </c>
       <c r="F15" t="n">
-        <v>168095</v>
+        <v>14000</v>
       </c>
       <c r="G15" t="n">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>182095</v>
       </c>
       <c r="J15" t="n">
-        <v>182095</v>
+        <v>214872</v>
       </c>
       <c r="K15" t="n">
-        <v>16389</v>
-      </c>
-      <c r="L15" t="n">
-        <v>16389</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>214872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1236,46 +1064,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HDFC Bank</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>ABNJ</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>106920</v>
       </c>
       <c r="E16" t="n">
-        <v>106920</v>
+        <v>114557</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>114557</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>114557</v>
+        <v>135177</v>
       </c>
       <c r="K16" t="n">
-        <v>10310</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10310</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>135177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1286,46 +1103,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reliance Retail Ltd</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="E17" t="n">
         <v>200000</v>
       </c>
       <c r="F17" t="n">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="G17" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="J17" t="n">
-        <v>220000</v>
+        <v>259600</v>
       </c>
       <c r="K17" t="n">
-        <v>19800</v>
-      </c>
-      <c r="L17" t="n">
-        <v>19800</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>259600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1336,46 +1142,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reliance Retail Ltd</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>35280</v>
       </c>
       <c r="E18" t="n">
-        <v>35280</v>
+        <v>37800</v>
       </c>
       <c r="F18" t="n">
-        <v>37800</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38800</v>
       </c>
       <c r="J18" t="n">
-        <v>38800</v>
+        <v>45784</v>
       </c>
       <c r="K18" t="n">
-        <v>3492</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3492</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>45784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1386,46 +1181,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>107000</v>
       </c>
       <c r="E19" t="n">
-        <v>107000</v>
+        <v>73571</v>
       </c>
       <c r="F19" t="n">
-        <v>73571</v>
+        <v>6786</v>
       </c>
       <c r="G19" t="n">
-        <v>6786</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>80357</v>
       </c>
       <c r="J19" t="n">
-        <v>80357</v>
+        <v>94821</v>
       </c>
       <c r="K19" t="n">
-        <v>7232</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7232</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>94821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1436,46 +1220,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Titan Company Ltd</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>147000</v>
       </c>
       <c r="E20" t="n">
-        <v>147000</v>
+        <v>156714</v>
       </c>
       <c r="F20" t="n">
-        <v>156714</v>
+        <v>9500</v>
       </c>
       <c r="G20" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>166214</v>
       </c>
       <c r="J20" t="n">
-        <v>166214</v>
+        <v>196133</v>
       </c>
       <c r="K20" t="n">
-        <v>14959</v>
-      </c>
-      <c r="L20" t="n">
-        <v>14959</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>196133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1486,46 +1259,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>110000</v>
       </c>
       <c r="E21" t="n">
-        <v>110000</v>
+        <v>110714</v>
       </c>
       <c r="F21" t="n">
-        <v>110714</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>120714</v>
       </c>
       <c r="J21" t="n">
-        <v>120714</v>
+        <v>142443</v>
       </c>
       <c r="K21" t="n">
-        <v>10864</v>
-      </c>
-      <c r="L21" t="n">
-        <v>10864</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>142443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1536,46 +1298,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>81600</v>
       </c>
       <c r="E22" t="n">
-        <v>81600</v>
+        <v>87429</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>87429</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>87429</v>
+        <v>103166</v>
       </c>
       <c r="K22" t="n">
-        <v>7869</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7869</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>103166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1586,46 +1337,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HDFC Bank</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>ABNJ</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>58538</v>
       </c>
       <c r="E23" t="n">
-        <v>58538</v>
+        <v>8363</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>8363</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>8363</v>
+        <v>9868</v>
       </c>
       <c r="K23" t="n">
-        <v>753</v>
-      </c>
-      <c r="L23" t="n">
-        <v>753</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1636,46 +1376,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>343354</v>
       </c>
       <c r="E24" t="n">
-        <v>343354</v>
+        <v>380142</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>380142</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
-        <v>380142</v>
+        <v>448568</v>
       </c>
       <c r="K24" t="n">
-        <v>34213</v>
-      </c>
-      <c r="L24" t="n">
-        <v>34213</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>448568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1686,46 +1415,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>56819</v>
       </c>
       <c r="E25" t="n">
-        <v>56819</v>
+        <v>60878</v>
       </c>
       <c r="F25" t="n">
-        <v>60878</v>
+        <v>7914</v>
       </c>
       <c r="G25" t="n">
-        <v>7914</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68792</v>
       </c>
       <c r="J25" t="n">
-        <v>68792</v>
+        <v>81174</v>
       </c>
       <c r="K25" t="n">
-        <v>6191</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6191</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>81174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1736,46 +1454,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reliance Retail Ltd</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>108333</v>
       </c>
       <c r="E26" t="n">
-        <v>108333</v>
+        <v>116071</v>
       </c>
       <c r="F26" t="n">
-        <v>116071</v>
+        <v>10714</v>
       </c>
       <c r="G26" t="n">
-        <v>10714</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>126785</v>
       </c>
       <c r="J26" t="n">
-        <v>126785</v>
+        <v>149607</v>
       </c>
       <c r="K26" t="n">
-        <v>11411</v>
-      </c>
-      <c r="L26" t="n">
-        <v>11411</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>149607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1786,46 +1493,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Jobuss</t>
-        </is>
+          <t>Jobuss</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>651703</v>
       </c>
       <c r="E27" t="n">
-        <v>651703</v>
+        <v>509606</v>
       </c>
       <c r="F27" t="n">
-        <v>509606</v>
+        <v>46964</v>
       </c>
       <c r="G27" t="n">
-        <v>46964</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>556571</v>
       </c>
       <c r="J27" t="n">
-        <v>556571</v>
+        <v>656753</v>
       </c>
       <c r="K27" t="n">
-        <v>50091</v>
-      </c>
-      <c r="L27" t="n">
-        <v>50091</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>656753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1868,18 +1564,6 @@
       </c>
       <c r="K28" s="2">
         <f>SUM(K2:K27)</f>
-        <v/>
-      </c>
-      <c r="L28" s="2">
-        <f>SUM(L2:L27)</f>
-        <v/>
-      </c>
-      <c r="M28" s="2">
-        <f>SUM(M2:M27)</f>
-        <v/>
-      </c>
-      <c r="N28" s="2">
-        <f>SUM(N2:N27)</f>
         <v/>
       </c>
     </row>

--- a/Bills/Master_Summary.xlsx
+++ b/Bills/Master_Summary.xlsx
@@ -61,12 +61,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +453,10 @@
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="18" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -466,47 +472,67 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>PO Number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Validity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>No of Employees</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Total Billing</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Total Payable Billing</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total Charges</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total Out of Pocket</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Total Arrears</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Total Amount</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CGST</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SGST</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>IGST</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>IGST</t>
         </is>
       </c>
     </row>
@@ -521,32 +547,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" s="2" t="n">
         <v>87500</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" s="2" t="n">
         <v>25000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>25750</v>
       </c>
-      <c r="J2" t="n">
-        <v>30385</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
+      <c r="L2" s="2" t="n">
+        <v>2318</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>2318</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>30386</v>
       </c>
     </row>
     <row r="3">
@@ -561,31 +595,45 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>550047851</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>From: 01.10.2025 To: 31.03.2026</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" s="2" t="n">
         <v>90147</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" s="2" t="n">
         <v>90147</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>91647</v>
       </c>
-      <c r="J3" t="n">
-        <v>108143</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+      <c r="L3" s="2" t="n">
+        <v>8249</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>8249</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>108145</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +648,45 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>550047855</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>From: 01.10.2025 To: 31.03.2026</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" s="2" t="n">
         <v>1097327</v>
       </c>
-      <c r="E4" t="n">
-        <v>1057148</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="G4" s="2" t="n">
+        <v>1057147.78</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>21000</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1078148</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1272214</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1078147.78</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>97034</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>97034</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>1272216</v>
       </c>
     </row>
     <row r="5">
@@ -638,32 +700,40 @@
           <t>Aradhya</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" s="2" t="n">
         <v>177500</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" s="2" t="n">
         <v>177500</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>192500</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>34650</v>
+      </c>
+      <c r="O5" s="2" t="n">
         <v>227150</v>
-      </c>
-      <c r="K5" t="n">
-        <v>34650</v>
       </c>
     </row>
     <row r="6">
@@ -678,31 +748,45 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>550047670</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>From: 01.08.2025 To: 31.01.2026</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" s="2" t="n">
         <v>91855</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" s="2" t="n">
         <v>91855</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" s="2" t="n">
         <v>2250</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" s="2" t="n">
         <v>5288</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
         <v>99393</v>
       </c>
-      <c r="J6" t="n">
-        <v>117284</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" s="2" t="n">
+        <v>8946</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>8946</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>117285</v>
       </c>
     </row>
     <row r="7">
@@ -717,31 +801,45 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>550047671</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>From: 01.08.2025 To: 31.01.2026</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="D7" t="n">
-        <v>3116030</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2897796</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
+        <v>3116030.5</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>2897795.52</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>49500</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" s="2" t="n">
         <v>12654</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2959950</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3492740</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>2959949.52</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>266396</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>266396</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>3492742</v>
       </c>
     </row>
     <row r="8">
@@ -755,32 +853,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" s="2" t="n">
         <v>173624</v>
       </c>
-      <c r="E8" t="n">
-        <v>189415</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" s="2" t="n">
+        <v>189415.28</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" s="2" t="n">
         <v>1558</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>206973</v>
-      </c>
-      <c r="J8" t="n">
-        <v>244228</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>206973.28</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>18628</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>18628</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>244229</v>
       </c>
     </row>
     <row r="9">
@@ -794,32 +900,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" s="2" t="n">
         <v>53600</v>
       </c>
-      <c r="E9" t="n">
-        <v>52261</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="G9" s="2" t="n">
+        <v>52260.71</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>57261</v>
-      </c>
-      <c r="J9" t="n">
-        <v>67568</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>57260.71</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>5154</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>5154</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>67569</v>
       </c>
     </row>
     <row r="10">
@@ -833,32 +947,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" s="2" t="n">
         <v>163300</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" s="2" t="n">
         <v>163300</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" s="2" t="n">
         <v>5250</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
         <v>168550</v>
       </c>
-      <c r="J10" t="n">
-        <v>198889</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" s="2" t="n">
+        <v>15170</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>15170</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>198890</v>
       </c>
     </row>
     <row r="11">
@@ -873,31 +995,45 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>630335024</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>From: 24.11.2025 To: 30.06.2026</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" s="2" t="n">
         <v>108333</v>
       </c>
-      <c r="E11" t="n">
-        <v>116071</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="G11" s="2" t="n">
+        <v>116071.07</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>116821</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>116821.07</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>10514</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>10514</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
         <v>137849</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -911,32 +1047,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" s="2" t="n">
         <v>43333</v>
       </c>
-      <c r="E12" t="n">
-        <v>46428</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5357</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>51785</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="G12" s="2" t="n">
+        <v>46428.21</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>5357.14</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>51785.36</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>4661</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>4661</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
         <v>61107</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -950,32 +1094,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" s="2" t="n">
         <v>209840</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" s="2" t="n">
         <v>209840</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" s="2" t="n">
         <v>20984</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
         <v>230824</v>
       </c>
-      <c r="J13" t="n">
-        <v>272372</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" s="2" t="n">
+        <v>20775</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>20775</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>272374</v>
       </c>
     </row>
     <row r="14">
@@ -990,31 +1142,43 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>280147250</v>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" s="2" t="n">
         <v>67200</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" s="2" t="n">
         <v>72000</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
         <v>72000</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" s="2" t="n">
+        <v>6480</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>6480</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="n">
         <v>84960</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1028,32 +1192,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" s="2" t="n">
         <v>173698</v>
       </c>
-      <c r="E15" t="n">
-        <v>168095</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="G15" s="2" t="n">
+        <v>168094.83</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>14000</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>182095</v>
-      </c>
-      <c r="J15" t="n">
-        <v>214872</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>182094.83</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>16389</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>16389</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>214873</v>
       </c>
     </row>
     <row r="16">
@@ -1067,32 +1239,40 @@
           <t>ABNJ</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" s="2" t="n">
         <v>106920</v>
       </c>
-      <c r="E16" t="n">
-        <v>114557</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>114557</v>
-      </c>
-      <c r="J16" t="n">
-        <v>135177</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="G16" s="2" t="n">
+        <v>114557.14</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>114557.14</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>10311</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>10311</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>135179</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1287,45 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>5500129268</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>From: 23.05.2025 To: 31.03.2026</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" s="2" t="n">
         <v>200000</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" s="2" t="n">
         <v>200000</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
         <v>220000</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" s="2" t="n">
+        <v>19800</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>19800</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="n">
         <v>259600</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1145,32 +1339,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" s="2" t="n">
         <v>35280</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" s="2" t="n">
         <v>37800</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
         <v>38800</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" s="2" t="n">
+        <v>3492</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>3492</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
         <v>45784</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1184,32 +1386,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" s="2" t="n">
         <v>107000</v>
       </c>
-      <c r="E19" t="n">
-        <v>73571</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6786</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>80357</v>
-      </c>
-      <c r="J19" t="n">
-        <v>94821</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="G19" s="2" t="n">
+        <v>73571.42999999999</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>6785.71</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>80357.14</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>7233</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>7233</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>94823</v>
       </c>
     </row>
     <row r="20">
@@ -1223,32 +1433,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" s="2" t="n">
         <v>147000</v>
       </c>
-      <c r="E20" t="n">
-        <v>156714</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="G20" s="2" t="n">
+        <v>156714.29</v>
+      </c>
+      <c r="H20" s="2" t="n">
         <v>9500</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>166214</v>
-      </c>
-      <c r="J20" t="n">
-        <v>196133</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>166214.29</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>14960</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>14960</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>196134</v>
       </c>
     </row>
     <row r="21">
@@ -1262,32 +1480,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" s="2" t="n">
         <v>110000</v>
       </c>
-      <c r="E21" t="n">
-        <v>110714</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="G21" s="2" t="n">
+        <v>110714.28</v>
+      </c>
+      <c r="H21" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>120714</v>
-      </c>
-      <c r="J21" t="n">
-        <v>142443</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>120714.29</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>10865</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>10865</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>142444</v>
       </c>
     </row>
     <row r="22">
@@ -1301,32 +1527,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" s="2" t="n">
         <v>81600</v>
       </c>
-      <c r="E22" t="n">
-        <v>87429</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87429</v>
-      </c>
-      <c r="J22" t="n">
-        <v>103166</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="G22" s="2" t="n">
+        <v>87428.57000000001</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>87428.57000000001</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>7869</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>7869</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>103167</v>
       </c>
     </row>
     <row r="23">
@@ -1340,32 +1574,40 @@
           <t>ABNJ</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" s="2" t="n">
         <v>58538</v>
       </c>
-      <c r="E23" t="n">
-        <v>8363</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8363</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9868</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="G23" s="2" t="n">
+        <v>8362.57</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>8362.57</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>753</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>753</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>9869</v>
       </c>
     </row>
     <row r="24">
@@ -1379,32 +1621,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" s="2" t="n">
         <v>343354</v>
       </c>
-      <c r="E24" t="n">
-        <v>380142</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>380142</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="G24" s="2" t="n">
+        <v>380141.97</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>380141.97</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>34213</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>34213</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="n">
         <v>448568</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1418,32 +1668,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" s="2" t="n">
         <v>56819</v>
       </c>
-      <c r="E25" t="n">
-        <v>60878</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7914</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>68792</v>
-      </c>
-      <c r="J25" t="n">
-        <v>81174</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="G25" s="2" t="n">
+        <v>60877.5</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>7914.07</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>68791.58</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>6192</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>6192</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>81176</v>
       </c>
     </row>
     <row r="26">
@@ -1457,32 +1715,40 @@
           <t>Jobuss</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" s="2" t="n">
         <v>108333</v>
       </c>
-      <c r="E26" t="n">
-        <v>116071</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10714</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>126785</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="G26" s="2" t="n">
+        <v>116071.07</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>10714.29</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>126785.36</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>11411</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>11411</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="n">
         <v>149607</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1497,73 +1763,95 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>630340984</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> From:01.01.2026 to 31.12.2026</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D27" t="n">
+      <c r="F27" s="2" t="n">
         <v>651703</v>
       </c>
-      <c r="E27" t="n">
-        <v>509606</v>
-      </c>
-      <c r="F27" t="n">
-        <v>46964</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>556571</v>
-      </c>
-      <c r="J27" t="n">
-        <v>656753</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="G27" s="2" t="n">
+        <v>509606.32</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>46964.28</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>556570.61</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>50092</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>50092</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>656755</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>GRAND TOTAL</t>
         </is>
       </c>
-      <c r="C28" s="2">
-        <f>SUM(C2:C27)</f>
-        <v/>
-      </c>
-      <c r="D28" s="2">
-        <f>SUM(D2:D27)</f>
-        <v/>
-      </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <f>SUM(E2:E27)</f>
         <v/>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <f>SUM(F2:F27)</f>
         <v/>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <f>SUM(G2:G27)</f>
         <v/>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <f>SUM(H2:H27)</f>
         <v/>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="4">
         <f>SUM(I2:I27)</f>
         <v/>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="4">
         <f>SUM(J2:J27)</f>
         <v/>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="4">
         <f>SUM(K2:K27)</f>
+        <v/>
+      </c>
+      <c r="L28" s="4">
+        <f>SUM(L2:L27)</f>
+        <v/>
+      </c>
+      <c r="M28" s="4">
+        <f>SUM(M2:M27)</f>
+        <v/>
+      </c>
+      <c r="N28" s="4">
+        <f>SUM(N2:N27)</f>
+        <v/>
+      </c>
+      <c r="O28" s="4">
+        <f>SUM(O2:O27)</f>
         <v/>
       </c>
     </row>
